--- a/data/trans_camb/P2A_lim_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.07103890337728652</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.294097291331235</v>
+        <v>5.294097291331236</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.128076385025012</v>
+        <v>-1.252730972394133</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.220263015828422</v>
+        <v>-3.112279957459683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.19923753079179</v>
+        <v>3.621227259603552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9449852411992042</v>
+        <v>-0.6977623473408561</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.613176288608495</v>
+        <v>-3.338884614207988</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5038963535324816</v>
+        <v>0.09187664089381817</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.223690903311532</v>
+        <v>0.07059600480655372</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.02281281471991</v>
+        <v>-2.077288006163808</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.051000517605245</v>
+        <v>2.953399510707782</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.676391956548464</v>
+        <v>5.701237954639508</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.715869517181365</v>
+        <v>2.52706598865369</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.788861732955919</v>
+        <v>10.10241168851434</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.555402650772193</v>
+        <v>7.570122709926401</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.913085947722056</v>
+        <v>3.74200042950896</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.746380775105598</v>
+        <v>6.943562590407834</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.00947855691983</v>
+        <v>5.279622403319918</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.184367951349238</v>
+        <v>2.352395928167271</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.685524110140342</v>
+        <v>7.62283669721603</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.228537644705863</v>
+        <v>-0.270443972753339</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5350287894662807</v>
+        <v>-0.523146345932522</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4790428127937141</v>
+        <v>0.5132905911687857</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1506420001797666</v>
+        <v>-0.1346880991556708</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5261531891265919</v>
+        <v>-0.4669688869105933</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02157678528758459</v>
+        <v>0.007989259222008349</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05222614621377705</v>
+        <v>0.006857464274997614</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3583561640491686</v>
+        <v>-0.3641727287077314</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4771461304767564</v>
+        <v>0.5059048777805416</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.80724779270013</v>
+        <v>1.682278433506224</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8752108466903772</v>
+        <v>0.839983650557258</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.06034576743259</v>
+        <v>3.201343273018559</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.20648282456132</v>
+        <v>2.179452784011203</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.135916743548861</v>
+        <v>1.168352621391465</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.87157364819632</v>
+        <v>2.107703090036909</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.324435077333826</v>
+        <v>1.331459042459722</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.60173567853877</v>
+        <v>0.5748594149044343</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.050796926353242</v>
+        <v>2.060789380122485</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.354051342747575</v>
+        <v>-2.349844636679735</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.512182317669395</v>
+        <v>-3.304991447474271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07646412083040756</v>
+        <v>0.3586654956251508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.512789742512604</v>
+        <v>-1.923899443920475</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.881025349921283</v>
+        <v>-3.950698288494065</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005058411284465593</v>
+        <v>0.08494548299457111</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.055774788445638</v>
+        <v>-1.246411623140686</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.716300447814993</v>
+        <v>-2.91915477586757</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9582353120625355</v>
+        <v>0.9138903637976872</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.776367431651223</v>
+        <v>5.111091716162391</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.284734397997181</v>
+        <v>3.333881296197093</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.826384056695955</v>
+        <v>8.020635736417544</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.264190988666544</v>
+        <v>5.650558047142326</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.917361479499055</v>
+        <v>2.874027029581905</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.830358207452098</v>
+        <v>6.939988160569981</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.369727982853032</v>
+        <v>3.93003816804408</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.078116874939327</v>
+        <v>2.102080153743253</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.20980096588312</v>
+        <v>6.12812626739511</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3366232319501509</v>
+        <v>-0.3406549665227933</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4985271754555755</v>
+        <v>-0.4704966847805903</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.006039077663339747</v>
+        <v>0.02305939555594127</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2340960854540549</v>
+        <v>-0.2914805537887264</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5180304589126564</v>
+        <v>-0.5278075288046419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02045506916960402</v>
+        <v>-0.0241004913695577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1581950997129272</v>
+        <v>-0.1885218291402027</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4045788707932389</v>
+        <v>-0.405650294016361</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1240587630589097</v>
+        <v>0.1088846652764147</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.310578576944972</v>
+        <v>1.294584547920753</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8960080065612677</v>
+        <v>0.9231171651901513</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.090711274866274</v>
+        <v>2.165586892170855</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.54976892692843</v>
+        <v>1.308031637222385</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8597907676815172</v>
+        <v>0.7539524148555156</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.787745955342988</v>
+        <v>1.720080335254179</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.071374509662494</v>
+        <v>0.9108946128295935</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4856071761335348</v>
+        <v>0.4903863341402552</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.358813120578367</v>
+        <v>1.372105150499209</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.269796298174636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.820357522627207</v>
+        <v>8.820357522627205</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.2170588609853821</v>
@@ -1092,7 +1092,7 @@
         <v>0.5360648064582876</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.750677466988789</v>
+        <v>7.750677466988787</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.064182175221441</v>
+        <v>2.016794835334989</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.016241071285508</v>
+        <v>-1.844383340670895</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.961603221348769</v>
+        <v>5.270718285584565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.853743314117176</v>
+        <v>-6.515403254840699</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.104225711470441</v>
+        <v>-8.096234726807966</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.75291842622298</v>
+        <v>-2.090749287276874</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.095081307010633</v>
+        <v>0.9592907570592116</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.319338958988154</v>
+        <v>-2.154054645053693</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.355784279699995</v>
+        <v>4.527868068592675</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.082943526682918</v>
+        <v>8.902185535186241</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.442031881165052</v>
+        <v>4.289539425443432</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.10815217694979</v>
+        <v>13.00013676124779</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.978521593091338</v>
+        <v>5.412333003331201</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.310142334771967</v>
+        <v>4.779015580934192</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.99982295256182</v>
+        <v>10.99985753342613</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.167881967212534</v>
+        <v>6.788636989563244</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.692465990849195</v>
+        <v>3.595364584397797</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.91614859973352</v>
+        <v>11.16278264855074</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1971152470309608</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.369217215763958</v>
+        <v>1.369217215763957</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.02159869128107317</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2553214310420873</v>
+        <v>0.2370156786067636</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2521488099920475</v>
+        <v>-0.2332067004656624</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5840044095092098</v>
+        <v>0.6625371410552541</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.511760646865467</v>
+        <v>-0.4793763240461434</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6100346017713005</v>
+        <v>-0.6267190724484372</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1526407470622677</v>
+        <v>-0.1935020742975647</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1113041757618418</v>
+        <v>0.108875922287075</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2701172306343642</v>
+        <v>-0.2607016878640037</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4742718045477529</v>
+        <v>0.5055745422732212</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.819374786393003</v>
+        <v>1.860674086205928</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8935617552676969</v>
+        <v>0.8610073442143028</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.629815307357272</v>
+        <v>2.596747431985678</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7712261060823112</v>
+        <v>0.8248567630482943</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6984983813849106</v>
+        <v>0.7995415614493809</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.600525087994567</v>
+        <v>1.667154417630603</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.245254405110348</v>
+        <v>1.162845742198874</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6303751940577628</v>
+        <v>0.6096192299711271</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.838878446811893</v>
+        <v>1.843297728997781</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8244787307278978</v>
+        <v>0.6357965821948897</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.524788326430128</v>
+        <v>-2.81800272229919</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.251214726874531</v>
+        <v>3.950395457133901</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.567239466414342</v>
+        <v>1.40585701993646</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.068600279101079</v>
+        <v>-2.055407425069465</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6842970667193154</v>
+        <v>1.146526947437241</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.966283358760534</v>
+        <v>1.966381782690263</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.805333630106239</v>
+        <v>-1.634004125319996</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.615838283154133</v>
+        <v>3.396570210671585</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.695712434209919</v>
+        <v>5.364831993850845</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.858802040158277</v>
+        <v>1.66637933559272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.401305349632024</v>
+        <v>9.113143284642119</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.55246398313416</v>
+        <v>7.869921931503192</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.279720701567205</v>
+        <v>3.896991517799322</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.391033059617506</v>
+        <v>6.372607978719034</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.842359811450178</v>
+        <v>5.738516381856479</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.697999035877276</v>
+        <v>1.7551508229526</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.50753621142387</v>
+        <v>7.261924276037218</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.09441013285921861</v>
+        <v>0.05770582472022589</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2833509854263875</v>
+        <v>-0.3065392297191377</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4529791975452772</v>
+        <v>0.4424602205184877</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1546680194357822</v>
+        <v>0.1350255417405246</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2292718587350468</v>
+        <v>-0.2210645759648522</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06598176485305475</v>
+        <v>0.1053716833250989</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.217254472012761</v>
+        <v>0.2161473908109735</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2048484002568996</v>
+        <v>-0.1796143678978314</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3924827944854139</v>
+        <v>0.3892506960289238</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8271299956919456</v>
+        <v>0.7720335397689846</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2522695190621798</v>
+        <v>0.2293947569997406</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.350118303826766</v>
+        <v>1.313094507267248</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.331627953495313</v>
+        <v>1.175068293399236</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6483612523585999</v>
+        <v>0.5895113117305079</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9366029789461869</v>
+        <v>0.9640629792511437</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.822863729301169</v>
+        <v>0.7971536871144783</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2374719094503624</v>
+        <v>0.2439261004849222</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.05095227865673</v>
+        <v>1.028435515402882</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.485460063582685</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9.7067997850894</v>
+        <v>9.706799785089402</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.449012803964348</v>
@@ -1520,7 +1520,7 @@
         <v>1.614692405195604</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>9.575125248505129</v>
+        <v>9.575125248505127</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.28092539781366</v>
+        <v>-3.80495645628356</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.558708623708831</v>
+        <v>-3.225358587988765</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.533928806302654</v>
+        <v>5.535550950861382</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.931112534868782</v>
+        <v>1.461778786288032</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6130186918858435</v>
+        <v>-0.6692987834301086</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.305901594762578</v>
+        <v>6.303682254934639</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7762047373220966</v>
+        <v>0.6135176204478543</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.8797499526402932</v>
+        <v>-0.9297749253909958</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.937234222367153</v>
+        <v>6.86167610212894</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.632840288569992</v>
+        <v>4.307037360343138</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.246944577109669</v>
+        <v>4.228407069582672</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.89744358002074</v>
+        <v>14.54252778651272</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.085823262230834</v>
+        <v>8.712459578813213</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.982571936182826</v>
+        <v>5.489791759622245</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.38690320157278</v>
+        <v>12.71650569385588</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.839553390907972</v>
+        <v>6.033290520441001</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.089176247190475</v>
+        <v>3.985287166976095</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.1676999856152</v>
+        <v>11.98759586029299</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.312654956924918</v>
+        <v>-0.3600166278406897</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3397916711018222</v>
+        <v>-0.3083649088907108</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5071456700706455</v>
+        <v>0.4869059245864605</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1738575633083111</v>
+        <v>0.1237222182379518</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.06462647984204896</v>
+        <v>-0.06790436140069944</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5579208005709464</v>
+        <v>0.6087872754259936</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0718405378209286</v>
+        <v>0.09038105877231808</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.09096485820352936</v>
+        <v>-0.09456113676352335</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6918900203407827</v>
+        <v>0.6675179166323951</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7977291599815309</v>
+        <v>0.7401451009663308</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6937970529766984</v>
+        <v>0.6781953044480344</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.403082626728357</v>
+        <v>2.428795106646586</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.350936336229957</v>
+        <v>1.234661536617844</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9082123129761949</v>
+        <v>0.7762982684078419</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.80272078312385</v>
+        <v>1.929271828894731</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8361057537034206</v>
+        <v>0.9004588924149313</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5874228965640254</v>
+        <v>0.5414094806436436</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.736001233104303</v>
+        <v>1.683602616823631</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>2.050109016438353</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.626992555777589</v>
+        <v>2.626992555777591</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.358525244323082</v>
@@ -1734,7 +1734,7 @@
         <v>0.6508142579222234</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>8.074779323864668</v>
+        <v>8.074779323864673</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.8602626706911695</v>
+        <v>-0.6082662243548479</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.904720186734234</v>
+        <v>-1.908184953862579</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.771743704168216</v>
+        <v>-2.129473724738129</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.2535077513509905</v>
+        <v>-0.01445328851035071</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.079396461495929</v>
+        <v>-1.980764532447318</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>7.163092035593201</v>
+        <v>7.210113196368219</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.2815141834626447</v>
+        <v>0.4898167609477685</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.367032062093672</v>
+        <v>-1.2743434718778</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>5.718789391943853</v>
+        <v>5.605775467149556</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.787020970211271</v>
+        <v>8.184586528615123</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.311959513281064</v>
+        <v>5.746766223344296</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.415884932569544</v>
+        <v>8.217675619329986</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.855624618730513</v>
+        <v>4.957532049298123</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.12108322784389</v>
+        <v>3.018340983333474</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.67021491946601</v>
+        <v>12.96967817227161</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.5622068731769</v>
+        <v>4.707910385564432</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.784089503036782</v>
+        <v>2.876410704815409</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>10.58946688955188</v>
+        <v>10.69790288382163</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.4321175956763518</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.5537118748125954</v>
+        <v>0.553711874812596</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2655935113991212</v>
@@ -1839,7 +1839,7 @@
         <v>0.08050189028498271</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.9988026403731366</v>
+        <v>0.9988026403731373</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1632702143914893</v>
+        <v>-0.1671472625690156</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3119484574359947</v>
+        <v>-0.3051100202761932</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3251675721265063</v>
+        <v>-0.35545062773209</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.03277341302482907</v>
+        <v>-0.002996165163578732</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2134019531543105</v>
+        <v>-0.2078682951057873</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7265489746313356</v>
+        <v>0.7038412092578059</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.030489082437433</v>
+        <v>0.05007590160448636</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1535555056651</v>
+        <v>-0.1476521605411467</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.6239885971043678</v>
+        <v>0.6206272220442213</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.557113341366333</v>
+        <v>2.609251777943539</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.238386119356231</v>
+        <v>2.100033782959961</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.561692143458245</v>
+        <v>2.38818445998189</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6001141262336406</v>
+        <v>0.6591074373704635</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3973173550617761</v>
+        <v>0.3846472892956978</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.652785875789387</v>
+        <v>1.618981052102914</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6408580895171908</v>
+        <v>0.6700160482326855</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4118934849665676</v>
+        <v>0.3959503097948039</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.456897879378816</v>
+        <v>1.49347316585919</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.523860180463277</v>
+        <v>1.354417156232456</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.8815589991402287</v>
+        <v>-0.8357595384281139</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.404001447337362</v>
+        <v>5.424662229768202</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.030472280330985</v>
+        <v>1.990185026118064</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.7049235358376932</v>
+        <v>-0.754501409958919</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.880731303495792</v>
+        <v>4.823679599075299</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.115433234308135</v>
+        <v>2.150898899531022</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.4447068322986626</v>
+        <v>-0.4283723292560647</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.541395999309973</v>
+        <v>5.541888595237872</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.191137405005392</v>
+        <v>4.262588722843915</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.649980590956509</v>
+        <v>1.634855403216523</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.455828302834128</v>
+        <v>8.30064231065518</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.046318134992633</v>
+        <v>4.826714926995371</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.012295637622301</v>
+        <v>1.928534169307114</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.582848597129348</v>
+        <v>7.536514307652252</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.134778765480047</v>
+        <v>4.139955871835324</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.441743233761784</v>
+        <v>1.403710120089495</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.472665786491535</v>
+        <v>7.524270995751982</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2070609486232119</v>
+        <v>0.1850657441113348</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1216637736460449</v>
+        <v>-0.1176112848811596</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.74021528240301</v>
+        <v>0.7351737086647115</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2336981056596742</v>
+        <v>0.2312542726561139</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.08109424775834871</v>
+        <v>-0.08657783289196438</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5492134782228792</v>
+        <v>0.5455732048468505</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2750408021216575</v>
+        <v>0.2712909641739899</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.05570724180876481</v>
+        <v>-0.05573924221528563</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.7024439360579694</v>
+        <v>0.6992243296908812</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7019887695069988</v>
+        <v>0.6917287491704185</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2674076519857144</v>
+        <v>0.2775296141335199</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.387702656905529</v>
+        <v>1.356183330264914</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.683262435798683</v>
+        <v>0.6563885353079687</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2718645350592478</v>
+        <v>0.2562992530483894</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.017304991338528</v>
+        <v>1.016917558397878</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6076521615375078</v>
+        <v>0.6042731490933513</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2098789615410528</v>
+        <v>0.2021544360230043</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.088277150361711</v>
+        <v>1.099178242479121</v>
       </c>
     </row>
     <row r="46">
